--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1127">
   <si>
     <t>anchor score</t>
   </si>
@@ -319,706 +319,706 @@
     <t>affected</t>
   </si>
   <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>charging</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>lack</t>
-  </si>
-  <si>
-    <t>delayed</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>charging</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>inflation</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3760,10 +3760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K4">
         <v>0.864406779661017</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K5">
         <v>0.864406779661017</v>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6">
         <v>0.84251968503937</v>
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>0.7948717948717948</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K8">
         <v>0.7875</v>
@@ -4142,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K9">
         <v>0.7555555555555555</v>
@@ -4192,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K10">
         <v>0.7163120567375887</v>
@@ -4292,16 +4292,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K12">
-        <v>0.7030567685589519</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L12">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>0.9399999999999999</v>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4342,28 +4342,28 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="K13">
-        <v>0.6777777777777778</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4392,7 +4392,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K14">
         <v>0.6111111111111112</v>
@@ -4442,28 +4442,28 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="K15">
-        <v>0.6109422492401215</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L15">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4492,28 +4492,28 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>334</v>
+        <v>148</v>
       </c>
       <c r="K16">
-        <v>0.6031746031746031</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4542,28 +4542,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="K17">
-        <v>0.6029411764705882</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4592,7 +4592,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K18">
         <v>0.5526315789473685</v>
@@ -4642,7 +4642,7 @@
         <v>98</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K19">
         <v>0.5517241379310345</v>
@@ -4692,7 +4692,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K20">
         <v>0.5397923875432526</v>
@@ -4792,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K22">
         <v>0.5087719298245614</v>
@@ -5042,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K27">
         <v>0.4107142857142857</v>
@@ -5092,7 +5092,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K28">
         <v>0.40625</v>
@@ -5142,7 +5142,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K29">
         <v>0.4042553191489361</v>
@@ -5242,7 +5242,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K31">
         <v>0.3924050632911392</v>
@@ -5442,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K35">
         <v>0.3809523809523809</v>
@@ -5542,7 +5542,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K37">
         <v>0.3696682464454976</v>
@@ -5792,7 +5792,7 @@
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K42">
         <v>0.3422982885085575</v>
@@ -6192,7 +6192,7 @@
         <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K50">
         <v>0.328125</v>
@@ -6242,7 +6242,7 @@
         <v>15</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K51">
         <v>0.323943661971831</v>
@@ -6342,7 +6342,7 @@
         <v>36</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K53">
         <v>0.3148148148148148</v>
@@ -6442,7 +6442,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K55">
         <v>0.3076923076923077</v>
@@ -6642,7 +6642,7 @@
         <v>22</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K59">
         <v>0.2947368421052631</v>
@@ -6842,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K63">
         <v>0.2872340425531915</v>
@@ -6892,7 +6892,7 @@
         <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K64">
         <v>0.286624203821656</v>
@@ -7242,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K71">
         <v>0.2842323651452282</v>
@@ -7392,7 +7392,7 @@
         <v>13</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K74">
         <v>0.267175572519084</v>
@@ -7442,7 +7442,7 @@
         <v>26</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K75">
         <v>0.2666666666666667</v>
@@ -7642,7 +7642,7 @@
         <v>25</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K79">
         <v>0.2575757575757576</v>
@@ -7692,7 +7692,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K80">
         <v>0.2571428571428571</v>
@@ -7742,7 +7742,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K81">
         <v>0.2568807339449541</v>
@@ -7792,7 +7792,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K82">
         <v>0.2558139534883721</v>
@@ -7942,7 +7942,7 @@
         <v>16</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K85">
         <v>0.25</v>
@@ -8342,7 +8342,7 @@
         <v>33</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K93">
         <v>0.2475728155339806</v>
@@ -8442,7 +8442,7 @@
         <v>27</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K95">
         <v>0.2426470588235294</v>
@@ -8471,28 +8471,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1282051282051282</v>
+        <v>0.125</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K96">
         <v>0.24</v>
@@ -8542,7 +8542,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K97">
         <v>0.2394366197183098</v>
@@ -8592,7 +8592,7 @@
         <v>7</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K98">
         <v>0.2391304347826087</v>
@@ -8621,28 +8621,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K99">
         <v>0.237880496054115</v>
@@ -8671,25 +8671,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>383</v>
@@ -8721,13 +8721,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>384</v>
@@ -8771,28 +8771,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K102">
         <v>0.2345276872964169</v>
@@ -8824,25 +8824,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="E103">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F103">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K103">
         <v>0.2333333333333333</v>
@@ -8874,25 +8874,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E104">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F104">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K104">
         <v>0.2328767123287671</v>
@@ -8924,22 +8924,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>385</v>
@@ -8992,7 +8992,7 @@
         <v>8</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K106">
         <v>0.2307692307692308</v>
@@ -9021,13 +9021,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>386</v>
@@ -9071,25 +9071,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1071428571428571</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>387</v>
@@ -9121,25 +9121,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1052631578947368</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>388</v>
@@ -9171,13 +9171,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1025641025641026</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>389</v>
@@ -9221,13 +9221,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1006711409395973</v>
+        <v>0.1</v>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K111">
         <v>0.2307692307692308</v>
@@ -9274,22 +9274,22 @@
         <v>0.1</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>390</v>
@@ -9324,22 +9324,22 @@
         <v>0.1</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>391</v>
@@ -9471,25 +9471,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>394</v>
@@ -9521,25 +9521,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>395</v>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K118">
         <v>0.2251461988304093</v>
@@ -9921,13 +9921,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.09090909090909091</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9939,10 +9939,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K125">
         <v>0.2204968944099379</v>
@@ -9971,13 +9971,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.08823529411764706</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>402</v>
@@ -10021,13 +10021,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -10039,10 +10039,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K127">
         <v>0.2170022371364653</v>
@@ -10077,22 +10077,22 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K128">
         <v>0.2142857142857143</v>
@@ -10127,22 +10127,22 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>11</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K129">
         <v>0.2142857142857143</v>
@@ -10177,16 +10177,16 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>11</v>
@@ -10227,13 +10227,13 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E131">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -10277,16 +10277,16 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>11</v>
@@ -10421,25 +10421,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>408</v>
@@ -10471,28 +10471,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.07913669064748201</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F136">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K136">
         <v>0.21</v>
@@ -10524,25 +10524,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K137">
         <v>0.2093628088426528</v>
@@ -10574,22 +10574,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>409</v>
@@ -10621,7 +10621,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>410</v>
@@ -10671,28 +10671,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K140">
         <v>0.2064056939501779</v>
@@ -10727,16 +10727,16 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>13</v>
@@ -10777,16 +10777,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>13</v>
@@ -10821,28 +10821,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E143">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F143">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K143">
         <v>0.2033898305084746</v>
@@ -10871,25 +10871,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>413</v>
@@ -10921,25 +10921,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>414</v>
@@ -10971,25 +10971,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>415</v>
@@ -11024,10 +11024,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E147">
         <v>0.5</v>
@@ -11039,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>416</v>
@@ -11074,10 +11074,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>417</v>
@@ -11124,22 +11124,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>418</v>
@@ -11171,13 +11171,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>419</v>
@@ -11221,7 +11221,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>420</v>
@@ -11327,16 +11327,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>15</v>
@@ -11427,16 +11427,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>15</v>
@@ -11521,25 +11521,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>426</v>
@@ -11571,7 +11571,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>427</v>
@@ -11621,25 +11621,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>428</v>
@@ -11721,7 +11721,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11739,10 +11739,10 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K161">
         <v>0.1986817325800377</v>
@@ -11771,28 +11771,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K162">
         <v>0.1962616822429906</v>
@@ -11842,7 +11842,7 @@
         <v>18</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K163">
         <v>0.1953125</v>
@@ -11877,13 +11877,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11921,7 +11921,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>430</v>
@@ -11971,25 +11971,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>431</v>
@@ -12027,16 +12027,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>19</v>
@@ -12077,16 +12077,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>19</v>
@@ -12127,22 +12127,22 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>19</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K169">
         <v>0.1923076923076923</v>
@@ -12171,25 +12171,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>434</v>
@@ -12221,28 +12221,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K171">
         <v>0.1875</v>
@@ -12271,25 +12271,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E172">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>435</v>
@@ -12324,22 +12324,22 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E173">
-        <v>0.6</v>
+        <v>0.99</v>
       </c>
       <c r="F173">
-        <v>0.4</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>436</v>
@@ -12371,28 +12371,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K174">
         <v>0.1851851851851852</v>
@@ -12421,25 +12421,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0.99</v>
+        <v>0.33</v>
       </c>
       <c r="F175">
-        <v>0.01000000000000001</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>437</v>
@@ -12471,13 +12471,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>438</v>
@@ -12521,25 +12521,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>439</v>
@@ -12571,25 +12571,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>440</v>
@@ -12627,16 +12627,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>22</v>
@@ -12677,16 +12677,16 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>22</v>
@@ -12727,13 +12727,13 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
@@ -12771,25 +12771,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04347826086956522</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>444</v>
@@ -12821,25 +12821,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.04347826086956522</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E183">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F183">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>445</v>
@@ -12871,25 +12871,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.04316546762589928</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D184">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E184">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="F184">
-        <v>0.04000000000000004</v>
+        <v>0.36</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>446</v>
@@ -12921,28 +12921,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.04285714285714286</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K185">
         <v>0.1804043545878694</v>
@@ -12971,25 +12971,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E186">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="F186">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>447</v>
@@ -13071,28 +13071,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E188">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F188">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K188">
         <v>0.1774193548387097</v>
@@ -13121,28 +13121,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K189">
         <v>0.1774193548387097</v>
@@ -13174,25 +13174,25 @@
         <v>0.04</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K190">
         <v>0.1764705882352941</v>
@@ -13224,22 +13224,22 @@
         <v>0.04</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>449</v>
@@ -13274,22 +13274,22 @@
         <v>0.04</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>450</v>
@@ -13321,25 +13321,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F193">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>451</v>
@@ -13371,25 +13371,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>452</v>
@@ -13427,13 +13427,13 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
@@ -13477,13 +13477,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -13521,28 +13521,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K197">
         <v>0.1711711711711712</v>
@@ -13571,25 +13571,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03703703703703703</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D198">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>455</v>
@@ -13621,25 +13621,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>2</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>456</v>
@@ -13671,25 +13671,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.03614457831325301</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C200">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>457</v>
@@ -13724,22 +13724,22 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>458</v>
@@ -13821,25 +13821,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03571428571428571</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E203">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F203">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>460</v>
@@ -13871,25 +13871,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>461</v>
@@ -13921,28 +13921,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03508771929824561</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K205">
         <v>0.1666666666666667</v>
@@ -13977,13 +13977,13 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E206">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
@@ -14021,25 +14021,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>463</v>
@@ -14071,25 +14071,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.03448275862068965</v>
+        <v>0.03237410071942446</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D208">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>464</v>
@@ -14121,25 +14121,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>465</v>
@@ -14171,25 +14171,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.03237410071942446</v>
+        <v>0.03187250996015936</v>
       </c>
       <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210">
         <v>9</v>
       </c>
-      <c r="D210">
-        <v>149</v>
-      </c>
       <c r="E210">
-        <v>0.9399999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="F210">
-        <v>0.06000000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>466</v>
@@ -14221,25 +14221,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>467</v>
@@ -14271,25 +14271,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03187250996015936</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C212">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="F212">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>468</v>
@@ -14324,22 +14324,22 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E213">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F213">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>469</v>
@@ -14371,25 +14371,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E214">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F214">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>470</v>
@@ -14421,25 +14421,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0303030303030303</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D215">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E215">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F215">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>471</v>
@@ -14471,25 +14471,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02941176470588235</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E216">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F216">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>472</v>
@@ -14521,25 +14521,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0291970802919708</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E217">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F217">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>473</v>
@@ -14571,25 +14571,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02912621359223301</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F218">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>474</v>
@@ -14621,25 +14621,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02898550724637681</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>475</v>
@@ -14677,13 +14677,13 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -14721,25 +14721,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>477</v>
@@ -14771,25 +14771,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>478</v>
@@ -14827,16 +14827,16 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
         <v>35</v>
@@ -14877,13 +14877,13 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
@@ -14921,25 +14921,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>481</v>
@@ -14971,25 +14971,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>482</v>
@@ -15021,25 +15021,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>483</v>
@@ -15071,25 +15071,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>484</v>
@@ -15121,25 +15121,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02631578947368421</v>
+        <v>0.02573529411764706</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E229">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.4</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>485</v>
@@ -15171,7 +15171,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>486</v>
@@ -15221,25 +15221,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02573529411764706</v>
+        <v>0.025</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>487</v>
@@ -15271,13 +15271,13 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02564102564102564</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E232">
         <v>0.67</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>488</v>
@@ -15321,25 +15321,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>489</v>
@@ -15371,25 +15371,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0245398773006135</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>490</v>
@@ -15427,16 +15427,16 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
         <v>40</v>
@@ -15471,25 +15471,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E236">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F236">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>492</v>
@@ -15521,28 +15521,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K237">
         <v>0.163265306122449</v>
@@ -15571,25 +15571,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E238">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F238">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>493</v>
@@ -15621,25 +15621,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>494</v>
@@ -15671,25 +15671,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E240">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F240">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>495</v>
@@ -15724,22 +15724,22 @@
         <v>0.02272727272727273</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E241">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F241">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>496</v>
@@ -15771,25 +15771,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F242">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>497</v>
@@ -15821,25 +15821,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>498</v>
@@ -15877,13 +15877,13 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E244">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
@@ -15927,13 +15927,13 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
@@ -15977,13 +15977,13 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
@@ -16021,25 +16021,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
         <v>17</v>
       </c>
       <c r="E247">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F247">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>502</v>
@@ -16071,25 +16071,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E248">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F248">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>503</v>
@@ -16121,25 +16121,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02127659574468085</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F249">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>504</v>
@@ -16171,28 +16171,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E250">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F250">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K250">
         <v>0.1547169811320755</v>
@@ -16221,25 +16221,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.02061855670103093</v>
+        <v>0.02</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E251">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F251">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>505</v>
@@ -16271,28 +16271,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E252">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F252">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K252">
         <v>0.1538461538461539</v>
@@ -16321,25 +16321,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.02</v>
+        <v>0.01953125</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D253">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E253">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F253">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>506</v>
@@ -16371,28 +16371,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.02</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="F254">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K254">
         <v>0.1538461538461539</v>
@@ -16421,25 +16421,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01953125</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C255">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E255">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F255">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>507</v>
@@ -16471,25 +16471,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01941747572815534</v>
+        <v>0.01876675603217158</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E256">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>508</v>
@@ -16521,25 +16521,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F257">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>509</v>
@@ -16571,25 +16571,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01876675603217158</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C258">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D258">
         <v>7</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>366</v>
+        <v>54</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>510</v>
@@ -16621,28 +16621,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F259">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K259">
         <v>0.1533742331288344</v>
@@ -16671,28 +16671,28 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E260">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F260">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K260">
         <v>0.1530054644808743</v>
@@ -16721,25 +16721,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E261">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F261">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>511</v>
@@ -16774,22 +16774,22 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E262">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F262">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>512</v>
@@ -16821,25 +16821,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01754385964912281</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="E263">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F263">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>513</v>
@@ -16871,25 +16871,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F264">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>514</v>
@@ -16921,28 +16921,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01734104046242774</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K265">
         <v>0.1495726495726496</v>
@@ -16971,7 +16971,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16989,10 +16989,10 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K266">
         <v>0.1488372093023256</v>
@@ -17021,28 +17021,28 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01694915254237288</v>
+        <v>0.01651982378854626</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>58</v>
+        <v>893</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K267">
         <v>0.1481481481481481</v>
@@ -17071,25 +17071,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E268">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F268">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>515</v>
@@ -17121,25 +17121,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01651982378854626</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
         <v>15</v>
       </c>
-      <c r="D269">
-        <v>75</v>
-      </c>
       <c r="E269">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F269">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>893</v>
+        <v>122</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>516</v>
@@ -17171,25 +17171,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E270">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F270">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>517</v>
@@ -17221,25 +17221,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C271">
         <v>2</v>
       </c>
       <c r="D271">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="F271">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>518</v>
@@ -17271,25 +17271,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.015625</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D272">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E272">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F272">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>519</v>
@@ -17321,25 +17321,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01538461538461539</v>
+        <v>0.01414141414141414</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E273">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F273">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>128</v>
+        <v>488</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>520</v>
@@ -17371,25 +17371,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01485148514851485</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E274">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F274">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>521</v>
@@ -17421,28 +17421,28 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01414141414141414</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C275">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F275">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>488</v>
+        <v>72</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K275">
         <v>0.1428571428571428</v>
@@ -17477,13 +17477,13 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E276">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F276">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
@@ -17521,25 +17521,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.0136986301369863</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E277">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F277">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>523</v>
@@ -17571,25 +17571,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.0136986301369863</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E278">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F278">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>524</v>
@@ -17621,25 +17621,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01351351351351351</v>
+        <v>0.01310861423220974</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D279">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E279">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F279">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>525</v>
@@ -17671,25 +17671,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.0131578947368421</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D280">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E280">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F280">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>526</v>
@@ -17721,25 +17721,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01310861423220974</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C281">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E281">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F281">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>527</v>
+        <v>155</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>527</v>
@@ -17771,25 +17771,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01273885350318471</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C282">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="E282">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F282">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>528</v>
@@ -17821,25 +17821,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01273885350318471</v>
+        <v>0.01258627689809176</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D283">
-        <v>30</v>
+        <v>675</v>
       </c>
       <c r="E283">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F283">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>155</v>
+        <v>2432</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>529</v>
@@ -17871,25 +17871,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.01265822784810127</v>
+        <v>0.0125</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E284">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F284">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>530</v>
@@ -17921,25 +17921,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01258627689809176</v>
+        <v>0.0125</v>
       </c>
       <c r="C285">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>675</v>
+        <v>7</v>
       </c>
       <c r="E285">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F285">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>2432</v>
+        <v>79</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>531</v>
@@ -17971,25 +17971,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.0125</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E286">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F286">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>532</v>
@@ -18021,25 +18021,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E287">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F287">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>533</v>
@@ -18071,25 +18071,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01219512195121951</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E288">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F288">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>534</v>
@@ -18121,25 +18121,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01204819277108434</v>
+        <v>0.01146131805157593</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D289">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E289">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F289">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>535</v>
@@ -18171,25 +18171,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.01162790697674419</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E290">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F290">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>536</v>
@@ -18221,25 +18221,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01146131805157593</v>
+        <v>0.01108647450110865</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D291">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E291">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F291">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>345</v>
+        <v>446</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>537</v>
@@ -18271,25 +18271,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01111111111111111</v>
+        <v>0.01104009296920395</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292">
-        <v>89</v>
+        <v>1702</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>538</v>
@@ -18321,25 +18321,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01108647450110865</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C293">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E293">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F293">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>446</v>
+        <v>90</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>539</v>
@@ -18371,25 +18371,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01104009296920395</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C294">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>441</v>
+        <v>20</v>
       </c>
       <c r="E294">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F294">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>1702</v>
+        <v>92</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>540</v>
@@ -18421,25 +18421,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01098901098901099</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E295">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
       <c r="F295">
-        <v>0.09999999999999998</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>541</v>
@@ -18471,25 +18471,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01075268817204301</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E296">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F296">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>542</v>
@@ -18521,25 +18521,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.01063829787234043</v>
+        <v>0.01038062283737024</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D297">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E297">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="F297">
-        <v>0.6699999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>543</v>
@@ -18571,25 +18571,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.01052631578947368</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E298">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F298">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>544</v>
@@ -18621,25 +18621,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.01038062283737024</v>
+        <v>0.0102489019033675</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D299">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="E299">
-        <v>0.57</v>
+        <v>0.97</v>
       </c>
       <c r="F299">
-        <v>0.43</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>286</v>
+        <v>676</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>545</v>
@@ -18671,25 +18671,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.01030927835051546</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D300">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="E300">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F300">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>96</v>
+        <v>700</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>546</v>
@@ -18721,13 +18721,13 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.0102489019033675</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C301">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="E301">
         <v>0.97</v>
@@ -18739,7 +18739,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>676</v>
+        <v>103</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>547</v>
@@ -18771,25 +18771,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C302">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D302">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="E302">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F302">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>700</v>
+        <v>103</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>548</v>
@@ -18821,25 +18821,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.009615384615384616</v>
+        <v>0.009472259810554804</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D303">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="E303">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F303">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>103</v>
+        <v>732</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>549</v>
@@ -18871,25 +18871,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.009615384615384616</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E304">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F304">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>550</v>
@@ -18921,13 +18921,13 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.009472259810554804</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C305">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D305">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E305">
         <v>0.95</v>
@@ -18939,7 +18939,7 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>732</v>
+        <v>224</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>551</v>
@@ -18971,28 +18971,28 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.008928571428571428</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E306">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F306">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K306">
         <v>0.1403508771929824</v>
@@ -19021,28 +19021,28 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.008849557522123894</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E307">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F307">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K307">
         <v>0.1401869158878505</v>
@@ -19071,25 +19071,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.008849557522123894</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D308">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E308">
-        <v>0.97</v>
+        <v>0.33</v>
       </c>
       <c r="F308">
-        <v>0.03000000000000003</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>552</v>
@@ -19121,25 +19121,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.008695652173913044</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E309">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F309">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>553</v>
@@ -19171,28 +19171,28 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.008510638297872341</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E310">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="F310">
-        <v>0.6699999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K310">
         <v>0.1383928571428572</v>
@@ -19221,13 +19221,13 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.00819672131147541</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D311">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E311">
         <v>0.9399999999999999</v>
@@ -19239,10 +19239,10 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K311">
         <v>0.1379310344827586</v>
@@ -19271,25 +19271,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.008130081300813009</v>
+        <v>0.007619047619047619</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D312">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="E312">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F312">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>122</v>
+        <v>1042</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>554</v>
@@ -19321,25 +19321,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.008064516129032258</v>
+        <v>0.007548526240115025</v>
       </c>
       <c r="C313">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D313">
-        <v>35</v>
+        <v>440</v>
       </c>
       <c r="E313">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F313">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>246</v>
+        <v>2761</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>555</v>
@@ -19371,25 +19371,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.007619047619047619</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C314">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="E314">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F314">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>1042</v>
+        <v>138</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>556</v>
@@ -19421,25 +19421,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.007548526240115025</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C315">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D315">
-        <v>440</v>
+        <v>14</v>
       </c>
       <c r="E315">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F315">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>2761</v>
+        <v>152</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>557</v>
@@ -19471,25 +19471,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.007194244604316547</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E316">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F316">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>558</v>
@@ -19521,25 +19521,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.006535947712418301</v>
+        <v>0.006042296072507553</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D317">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E317">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F317">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>152</v>
+        <v>329</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>559</v>
@@ -19571,25 +19571,25 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.006493506493506494</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E318">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F318">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>560</v>
@@ -19621,25 +19621,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.006042296072507553</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D319">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E319">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F319">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>561</v>
@@ -19671,25 +19671,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.005319148936170213</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E320">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F320">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>562</v>
@@ -19721,25 +19721,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.005154639175257732</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E321">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F321">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>563</v>
@@ -19771,25 +19771,25 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>0.004854368932038835</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E322">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F322">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>564</v>
@@ -19821,25 +19821,25 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.004739336492890996</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E323">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F323">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>565</v>
@@ -19871,25 +19871,25 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.00423728813559322</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
       <c r="D324">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E324">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F324">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>235</v>
+        <v>439</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>566</v>
@@ -19917,32 +19917,8 @@
       </c>
     </row>
     <row r="325" spans="1:17">
-      <c r="A325" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B325">
-        <v>0.003759398496240601</v>
-      </c>
-      <c r="C325">
-        <v>1</v>
-      </c>
-      <c r="D325">
-        <v>41</v>
-      </c>
-      <c r="E325">
-        <v>0.98</v>
-      </c>
-      <c r="F325">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325">
-        <v>265</v>
-      </c>
       <c r="J325" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K325">
         <v>0.1333333333333333</v>
@@ -19967,30 +19943,6 @@
       </c>
     </row>
     <row r="326" spans="1:17">
-      <c r="A326" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B326">
-        <v>0.002272727272727273</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326">
-        <v>25</v>
-      </c>
-      <c r="E326">
-        <v>0.96</v>
-      </c>
-      <c r="F326">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326">
-        <v>439</v>
-      </c>
       <c r="J326" s="1" t="s">
         <v>567</v>
       </c>
@@ -20096,7 +20048,7 @@
     </row>
     <row r="330" spans="1:17">
       <c r="J330" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K330">
         <v>0.1317610062893082</v>
@@ -20122,7 +20074,7 @@
     </row>
     <row r="331" spans="1:17">
       <c r="J331" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K331">
         <v>0.1311475409836066</v>
@@ -20174,7 +20126,7 @@
     </row>
     <row r="333" spans="1:17">
       <c r="J333" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K333">
         <v>0.1304347826086956</v>
@@ -20226,7 +20178,7 @@
     </row>
     <row r="335" spans="1:17">
       <c r="J335" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K335">
         <v>0.1290322580645161</v>
@@ -20252,7 +20204,7 @@
     </row>
     <row r="336" spans="1:17">
       <c r="J336" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K336">
         <v>0.1290322580645161</v>
@@ -20304,7 +20256,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K338">
         <v>0.1272727272727273</v>
@@ -20798,7 +20750,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K357">
         <v>0.125</v>
@@ -21838,7 +21790,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K397">
         <v>0.1224489795918367</v>
@@ -21864,7 +21816,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K398">
         <v>0.1219512195121951</v>
@@ -21916,7 +21868,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K400">
         <v>0.1212121212121212</v>
@@ -21942,7 +21894,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K401">
         <v>0.12</v>
@@ -22124,7 +22076,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K408">
         <v>0.1182795698924731</v>
@@ -22410,7 +22362,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K419">
         <v>0.1167883211678832</v>
@@ -22618,7 +22570,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K427">
         <v>0.1136363636363636</v>
@@ -22956,7 +22908,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K440">
         <v>0.1111111111111111</v>
@@ -22982,7 +22934,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K441">
         <v>0.1111111111111111</v>
@@ -23294,7 +23246,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K453">
         <v>0.1111111111111111</v>
@@ -23736,7 +23688,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K470">
         <v>0.1052631578947368</v>
@@ -23762,7 +23714,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K471">
         <v>0.1052631578947368</v>
@@ -23996,7 +23948,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K480">
         <v>0.1023622047244094</v>
@@ -24022,7 +23974,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K481">
         <v>0.1020408163265306</v>
@@ -24230,7 +24182,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K489">
         <v>0.1</v>
@@ -24490,7 +24442,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K499">
         <v>0.1</v>
@@ -24854,7 +24806,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K513">
         <v>0.09876543209876543</v>
@@ -24958,7 +24910,7 @@
     </row>
     <row r="517" spans="10:17">
       <c r="J517" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K517">
         <v>0.09677419354838709</v>
@@ -24984,7 +24936,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K518">
         <v>0.0962962962962963</v>
@@ -25010,7 +24962,7 @@
     </row>
     <row r="519" spans="10:17">
       <c r="J519" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K519">
         <v>0.09627059843885516</v>
@@ -25062,7 +25014,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K521">
         <v>0.09574468085106383</v>
@@ -25088,7 +25040,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K522">
         <v>0.09523809523809523</v>
@@ -25322,7 +25274,7 @@
     </row>
     <row r="531" spans="10:17">
       <c r="J531" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K531">
         <v>0.09293680297397769</v>
@@ -25348,7 +25300,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K532">
         <v>0.09292035398230089</v>
@@ -25400,7 +25352,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K534">
         <v>0.09230769230769231</v>
@@ -25426,7 +25378,7 @@
     </row>
     <row r="535" spans="10:17">
       <c r="J535" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K535">
         <v>0.09090909090909091</v>
@@ -25582,7 +25534,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K541">
         <v>0.09090909090909091</v>
@@ -26986,7 +26938,7 @@
     </row>
     <row r="595" spans="10:17">
       <c r="J595" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K595">
         <v>0.08333333333333333</v>
@@ -27376,7 +27328,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K610">
         <v>0.08296943231441048</v>
@@ -27480,7 +27432,7 @@
     </row>
     <row r="614" spans="10:17">
       <c r="J614" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K614">
         <v>0.08100558659217877</v>
@@ -27688,7 +27640,7 @@
     </row>
     <row r="622" spans="10:17">
       <c r="J622" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K622">
         <v>0.07894736842105263</v>
@@ -27792,7 +27744,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K626">
         <v>0.07878787878787878</v>
@@ -28468,7 +28420,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K652">
         <v>0.07216494845360824</v>
@@ -28572,7 +28524,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K656">
         <v>0.07142857142857142</v>
@@ -29196,7 +29148,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K680">
         <v>0.07058823529411765</v>
@@ -29300,7 +29252,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K684">
         <v>0.06976744186046512</v>
@@ -29430,7 +29382,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K689">
         <v>0.06818181818181818</v>
@@ -29456,7 +29408,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K690">
         <v>0.06818181818181818</v>
@@ -29612,7 +29564,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K696">
         <v>0.06666666666666667</v>
@@ -29638,7 +29590,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K697">
         <v>0.06666666666666667</v>
@@ -30158,7 +30110,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K717">
         <v>0.06493506493506493</v>
@@ -30340,7 +30292,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K724">
         <v>0.06382978723404255</v>
@@ -30392,7 +30344,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K726">
         <v>0.06295907660020986</v>
@@ -30496,7 +30448,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K730">
         <v>0.0625</v>
@@ -31120,7 +31072,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K754">
         <v>0.05882352941176471</v>
@@ -31198,7 +31150,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K757">
         <v>0.05882352941176471</v>
@@ -31328,7 +31280,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K762">
         <v>0.05882352941176471</v>
@@ -32394,7 +32346,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K803">
         <v>0.05183585313174946</v>
@@ -32420,7 +32372,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K804">
         <v>0.05128205128205128</v>
@@ -32472,7 +32424,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K806">
         <v>0.05</v>
@@ -32706,7 +32658,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K815">
         <v>0.05</v>
@@ -32784,7 +32736,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K818">
         <v>0.04790419161676647</v>
@@ -33642,7 +33594,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K851">
         <v>0.04347826086956522</v>
@@ -33668,7 +33620,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K852">
         <v>0.04347826086956522</v>
@@ -33980,7 +33932,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K864">
         <v>0.04166666666666666</v>
@@ -34006,7 +33958,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K865">
         <v>0.04166666666666666</v>
@@ -34214,7 +34166,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K873">
         <v>0.04040404040404041</v>
@@ -34240,7 +34192,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K874">
         <v>0.04</v>
@@ -34266,7 +34218,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K875">
         <v>0.04</v>
@@ -34318,7 +34270,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K877">
         <v>0.04</v>
@@ -34448,7 +34400,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K882">
         <v>0.03896103896103896</v>
@@ -34604,7 +34556,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K888">
         <v>0.03703703703703703</v>
@@ -34734,7 +34686,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K893">
         <v>0.03703703703703703</v>
@@ -34942,7 +34894,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K901">
         <v>0.03571428571428571</v>
@@ -34968,7 +34920,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K902">
         <v>0.03571428571428571</v>
@@ -34994,7 +34946,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K903">
         <v>0.03571428571428571</v>
@@ -35566,7 +35518,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K925">
         <v>0.0303030303030303</v>
@@ -35670,7 +35622,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K929">
         <v>0.02884615384615385</v>
@@ -35696,7 +35648,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K930">
         <v>0.02857142857142857</v>
@@ -36112,7 +36064,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K946">
         <v>0.024</v>
@@ -36190,7 +36142,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K949">
         <v>0.02325581395348837</v>
@@ -36450,7 +36402,7 @@
     </row>
     <row r="959" spans="10:17">
       <c r="J959" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K959">
         <v>0.01754385964912281</v>
@@ -36580,7 +36532,7 @@
     </row>
     <row r="964" spans="10:17">
       <c r="J964" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K964">
         <v>0.01578947368421053</v>
@@ -36684,7 +36636,7 @@
     </row>
     <row r="968" spans="10:17">
       <c r="J968" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K968">
         <v>0.01379310344827586</v>
@@ -36736,7 +36688,7 @@
     </row>
     <row r="970" spans="10:17">
       <c r="J970" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K970">
         <v>0.0053475935828877</v>
@@ -36762,7 +36714,7 @@
     </row>
     <row r="971" spans="10:17">
       <c r="J971" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K971">
         <v>0.004273504273504274</v>
@@ -36788,7 +36740,7 @@
     </row>
     <row r="972" spans="10:17">
       <c r="J972" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K972">
         <v>0.004098360655737705</v>
